--- a/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50783D77-821D-4A8D-84C8-F65316E2C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09BB91-E71A-4CC1-B300-C757A5233961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Use case scenario gestione utenti e gruppi</t>
+  </si>
+  <si>
+    <t>UML gestione utenti e gruppi</t>
   </si>
 </sst>
 </file>
@@ -468,6 +471,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,9 +481,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,22 +827,22 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" customWidth="1"/>
-    <col min="2" max="2" width="99.09765625" customWidth="1"/>
-    <col min="4" max="19" width="4.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="99.125" customWidth="1"/>
+    <col min="4" max="19" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -855,38 +858,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="27" t="s">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -936,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -967,7 +970,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -1031,7 +1034,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -1064,7 +1067,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -1130,7 +1133,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -1157,7 +1160,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -1211,7 +1214,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -1238,15 +1241,19 @@
       <c r="R18" s="11"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="24"/>
       <c r="D19" s="21"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
@@ -1261,7 +1268,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>12</v>
       </c>
@@ -1284,7 +1291,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
@@ -1307,7 +1314,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>14</v>
       </c>
@@ -1330,7 +1337,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -1353,7 +1360,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>16</v>
       </c>
@@ -1378,11 +1385,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1393,16 +1405,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09BB91-E71A-4CC1-B300-C757A5233961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873AD95B-0B88-4286-85A0-188AF364D077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>UML gestione utenti e gruppi</t>
+  </si>
+  <si>
+    <t>ER Time&amp;Pieces</t>
   </si>
 </sst>
 </file>
@@ -471,9 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +481,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +830,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -860,36 +863,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,11 +1275,15 @@
       <c r="A20" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="24"/>
       <c r="D20" s="19"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
@@ -1385,6 +1392,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B23:C23"/>
@@ -1395,21 +1417,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/MODELLO_matrice_responsabilità.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873AD95B-0B88-4286-85A0-188AF364D077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A820BD-828B-49A3-8431-E82CD2D166CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>ER Time&amp;Pieces</t>
+  </si>
+  <si>
+    <t>Creazione DB</t>
+  </si>
+  <si>
+    <t>Creazione interfaccia web</t>
+  </si>
+  <si>
+    <t>Collegamento interfaccia -&gt; DB</t>
   </si>
 </sst>
 </file>
@@ -474,6 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,9 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,36 +872,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1302,11 +1311,15 @@
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="24"/>
       <c r="D21" s="19"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
@@ -1325,11 +1338,15 @@
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="19"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
@@ -1348,11 +1365,15 @@
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="D23" s="20"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
@@ -1392,11 +1413,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -1407,16 +1433,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
